--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf6-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Gdf6</t>
+  </si>
+  <si>
+    <t>Bmpr1b</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdf6</t>
-  </si>
-  <si>
-    <t>Bmpr1b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,10 +537,10 @@
         <v>0.334169</v>
       </c>
       <c r="I2">
-        <v>0.1624834559770965</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2254122992635983</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +555,22 @@
         <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8178057326420413</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="P2">
-        <v>0.8654277364307374</v>
+        <v>0.9050919696083439</v>
       </c>
       <c r="Q2">
-        <v>0.1634538652046667</v>
+        <v>0.1634538652046666</v>
       </c>
       <c r="R2">
         <v>1.471084786842</v>
       </c>
       <c r="S2">
-        <v>0.1328799017575603</v>
+        <v>0.864087546066766</v>
       </c>
       <c r="T2">
-        <v>0.1950780559153439</v>
+        <v>0.9050919696083439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +599,10 @@
         <v>0.334169</v>
       </c>
       <c r="I3">
-        <v>0.1624834559770965</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2254122992635983</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,276 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.296209</v>
+        <v>0.2308085</v>
       </c>
       <c r="N3">
-        <v>0.592418</v>
+        <v>0.461617</v>
       </c>
       <c r="O3">
-        <v>0.1650813873325899</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="P3">
-        <v>0.1164628759322743</v>
+        <v>0.09490803039165596</v>
       </c>
       <c r="Q3">
-        <v>0.03299462177366667</v>
+        <v>0.02570968187883333</v>
       </c>
       <c r="R3">
-        <v>0.197967730642</v>
+        <v>0.154258091273</v>
       </c>
       <c r="S3">
-        <v>0.02682299433129289</v>
+        <v>0.135912453933234</v>
       </c>
       <c r="T3">
-        <v>0.02625216464274514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.1113896666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.334169</v>
-      </c>
-      <c r="I4">
-        <v>0.1624834559770965</v>
-      </c>
-      <c r="J4">
-        <v>0.2254122992635983</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.030706</v>
-      </c>
-      <c r="N4">
-        <v>0.09211799999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.01711288002536893</v>
-      </c>
-      <c r="P4">
-        <v>0.01810938763698814</v>
-      </c>
-      <c r="Q4">
-        <v>0.003420331104666666</v>
-      </c>
-      <c r="R4">
-        <v>0.030782979942</v>
-      </c>
-      <c r="S4">
-        <v>0.002780559888243367</v>
-      </c>
-      <c r="T4">
-        <v>0.004082078705509279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.574155</v>
-      </c>
-      <c r="H5">
-        <v>1.14831</v>
-      </c>
-      <c r="I5">
-        <v>0.8375165440229033</v>
-      </c>
-      <c r="J5">
-        <v>0.7745877007364017</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.467406</v>
-      </c>
-      <c r="N5">
-        <v>4.402218</v>
-      </c>
-      <c r="O5">
-        <v>0.8178057326420413</v>
-      </c>
-      <c r="P5">
-        <v>0.8654277364307374</v>
-      </c>
-      <c r="Q5">
-        <v>0.8425184919300001</v>
-      </c>
-      <c r="R5">
-        <v>5.055110951580001</v>
-      </c>
-      <c r="S5">
-        <v>0.6849258308844809</v>
-      </c>
-      <c r="T5">
-        <v>0.6703496805153936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.574155</v>
-      </c>
-      <c r="H6">
-        <v>1.14831</v>
-      </c>
-      <c r="I6">
-        <v>0.8375165440229033</v>
-      </c>
-      <c r="J6">
-        <v>0.7745877007364017</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.296209</v>
-      </c>
-      <c r="N6">
-        <v>0.592418</v>
-      </c>
-      <c r="O6">
-        <v>0.1650813873325899</v>
-      </c>
-      <c r="P6">
-        <v>0.1164628759322743</v>
-      </c>
-      <c r="Q6">
-        <v>0.170069878395</v>
-      </c>
-      <c r="R6">
-        <v>0.6802795135799999</v>
-      </c>
-      <c r="S6">
-        <v>0.138258393001297</v>
-      </c>
-      <c r="T6">
-        <v>0.09021071128952915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.574155</v>
-      </c>
-      <c r="H7">
-        <v>1.14831</v>
-      </c>
-      <c r="I7">
-        <v>0.8375165440229033</v>
-      </c>
-      <c r="J7">
-        <v>0.7745877007364017</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.030706</v>
-      </c>
-      <c r="N7">
-        <v>0.09211799999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.01711288002536893</v>
-      </c>
-      <c r="P7">
-        <v>0.01810938763698814</v>
-      </c>
-      <c r="Q7">
-        <v>0.01763000343</v>
-      </c>
-      <c r="R7">
-        <v>0.10578002058</v>
-      </c>
-      <c r="S7">
-        <v>0.01433232013712556</v>
-      </c>
-      <c r="T7">
-        <v>0.01402730893147886</v>
+        <v>0.09490803039165596</v>
       </c>
     </row>
   </sheetData>
